--- a/Book_DeGruyter/Timeline/Timeline.xlsx
+++ b/Book_DeGruyter/Timeline/Timeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2283763c698eac32/Université/Postdoc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frédérick\PycharmProjects\Remoboko\Book_DeGruyter\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{B7BA6E50-654B-4E5A-AEF9-3B0F001B112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED92982-C237-44C4-86CB-29A764EB5F70}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0751EA11-2F72-477E-9BF9-8463FCD00C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="9096" windowWidth="23256" windowHeight="12456" xr2:uid="{DDE384E9-54B9-4093-B5BD-C1C1A6A8BE4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDE384E9-54B9-4093-B5BD-C1C1A6A8BE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Category</t>
   </si>
@@ -59,12 +59,6 @@
     <t>National Conference in Benin</t>
   </si>
   <si>
-    <t>Arrivée au pouvoir de Mathieu Kérékou</t>
-  </si>
-  <si>
-    <t>Mort du président Eyadéma</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
@@ -110,12 +104,6 @@
     <t>Expulsion of Beninese and Togolese students from the University of Dakar</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Creation of the University of Dakar</t>
-  </si>
-  <si>
     <t>Creation of the Institut d’Enseignement Supérieur du Bénin (IESB)</t>
   </si>
   <si>
@@ -137,24 +125,15 @@
     <t>Dissolution of all youth associations except for the JRPT</t>
   </si>
   <si>
-    <t>Dissolution of the Union Nationale des Étudiants Togolais (UNETO) and creation of the Mouvement National des Étudiants et Stagiaires Togolais (MONESTO)</t>
-  </si>
-  <si>
     <t>Dissolution of all youth organisations</t>
   </si>
   <si>
     <t>Religion</t>
   </si>
   <si>
-    <t>Creation of the Groupes Bibliques Universitaires d’Afrique Francophone (GBUAF)</t>
-  </si>
-  <si>
     <t>Creation of a Bible study group at the Université du Bénin</t>
   </si>
   <si>
-    <t>1974-1975</t>
-  </si>
-  <si>
     <t>Official recognition of the Groupes Bibliques Universitaires et Scolaires du Togo (GBUST)</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
     <t xml:space="preserve">Construction of the Centre Catholique Universitaire (CCU) </t>
   </si>
   <si>
-    <t>Official recognition of the GBEEB</t>
-  </si>
-  <si>
     <t>UNB renamed Université d'Abomey-Calavi</t>
   </si>
   <si>
@@ -197,19 +173,22 @@
     <t>Creation of the Réseau des Anciens Jécistes in Togo</t>
   </si>
   <si>
-    <t>Creation of the Réseau des Anciens Jécistes d’Afrique (RAJA) in Côte d’Ivoire</t>
-  </si>
-  <si>
     <t>Creation of the Réseau des Anciens de la Jeunesse Étudiante Catholique du Bénin (RAJEC)</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Creation of the Amicale des Intellectuels Musulmans du Bénin (AIMB) </t>
   </si>
   <si>
     <t>Creation of the Association des Cadres Musulmans au Togo (ACMT)</t>
+  </si>
+  <si>
+    <t>Mathieu Kérékou comes to power</t>
+  </si>
+  <si>
+    <t>Death of President Eyadéma</t>
+  </si>
+  <si>
+    <t>Creation of the Mouvement National des Étudiants et Stagiaires Togolais (MONESTO)</t>
   </si>
 </sst>
 </file>
@@ -245,15 +224,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -267,13 +249,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2083B534-B135-45CE-9920-5FBFB7B4867D}" name="Tableau1" displayName="Tableau1" ref="A1:D48" totalsRowShown="0">
-  <autoFilter ref="A1:D48" xr:uid="{2083B534-B135-45CE-9920-5FBFB7B4867D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2083B534-B135-45CE-9920-5FBFB7B4867D}" name="Tableau1" displayName="Tableau1" ref="A1:D44" totalsRowShown="0">
+  <autoFilter ref="A1:D44" xr:uid="{2083B534-B135-45CE-9920-5FBFB7B4867D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
+    <sortCondition ref="D1:D44"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2177A455-DE68-412D-9A67-CFE771F36BDB}" name="Category"/>
     <tableColumn id="4" xr3:uid="{6645F116-C0B5-4A06-A1A7-03FB4547384A}" name="Country"/>
     <tableColumn id="2" xr3:uid="{2202438E-9FF9-4158-9135-FE7C613B9615}" name="Event"/>
-    <tableColumn id="3" xr3:uid="{316BF807-EA06-4C43-8374-0E576A9C79AB}" name="Date"/>
+    <tableColumn id="3" xr3:uid="{316BF807-EA06-4C43-8374-0E576A9C79AB}" name="Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E4634B-6B14-474B-95CD-3BD74898EECD}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -604,16 +589,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>20875</v>
+        <v>22033</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,13 +606,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>22033</v>
+        <v>22129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,153 +620,153 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>22129</v>
+        <v>23024</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>23024</v>
+        <v>23937</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
-        <v>23937</v>
+        <v>24577</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>24577</v>
+        <v>24959</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2">
-        <v>24959</v>
+      <c r="D8" s="1">
+        <v>25324</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>1968</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25801</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2">
-        <v>25324</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25825</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
-        <v>25825</v>
+        <v>26299</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>25801</v>
+        <v>26341</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13">
-        <v>1972</v>
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>26598</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
-        <v>26341</v>
+        <v>26997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,474 +774,418 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
-        <v>26598</v>
+        <v>27030</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1">
-        <v>26997</v>
+        <v>27137</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1">
-        <v>27363</v>
+        <v>27273</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>27137</v>
+        <v>27363</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>1974</v>
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>27395</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="D20" s="1">
+        <v>27520</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>27520</v>
+        <v>27728</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22">
-        <v>1979</v>
+        <v>24</v>
+      </c>
+      <c r="D22" s="1">
+        <v>27728</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23">
-        <v>1975</v>
+        <v>50</v>
+      </c>
+      <c r="D23" s="1">
+        <v>28338</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
-        <v>27728</v>
+        <v>28460</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1">
-        <v>27728</v>
+        <v>28856</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="2">
-        <v>28338</v>
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>28913</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2">
-        <v>28460</v>
+        <v>37</v>
+      </c>
+      <c r="D27" s="1">
+        <v>29134</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1">
-        <v>28913</v>
+        <v>29587</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1">
-        <v>29134</v>
+        <v>31778</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30">
-        <v>1981</v>
+        <v>33</v>
+      </c>
+      <c r="D30" s="1">
+        <v>32357</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31">
-        <v>1987</v>
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>32923</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
-        <v>32357</v>
+        <v>33427</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1">
-        <v>32923</v>
+        <v>35065</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1">
-        <v>33427</v>
+        <v>35796</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35">
-        <v>1992</v>
+        <v>46</v>
+      </c>
+      <c r="D35" s="1">
+        <v>36161</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36">
-        <v>1996</v>
+        <v>40</v>
+      </c>
+      <c r="D36" s="1">
+        <v>36181</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37">
-        <v>1997</v>
+        <v>42</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36892</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38">
-        <v>1998</v>
+      <c r="D38" s="1">
+        <v>36959</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39">
-        <v>1999</v>
+        <v>39</v>
+      </c>
+      <c r="D39" s="1">
+        <v>37152</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1">
-        <v>37152</v>
+        <v>38388</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1">
-        <v>36181</v>
+        <v>38565</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1">
-        <v>36959</v>
+        <v>38930</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43">
-        <v>2001</v>
+        <v>43</v>
+      </c>
+      <c r="D43" s="1">
+        <v>39650</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="2">
-        <v>38565</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1">
-        <v>38388</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="2">
-        <v>38930</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="1">
-        <v>39650</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1">
         <v>40340</v>
       </c>
     </row>

--- a/Book_DeGruyter/Timeline/Timeline.xlsx
+++ b/Book_DeGruyter/Timeline/Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frédérick\PycharmProjects\Remoboko\Book_DeGruyter\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0751EA11-2F72-477E-9BF9-8463FCD00C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C966A65-AFDA-43B2-A830-7D3C39052254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDE384E9-54B9-4093-B5BD-C1C1A6A8BE4B}"/>
+    <workbookView xWindow="-23148" yWindow="9096" windowWidth="23256" windowHeight="12456" xr2:uid="{DDE384E9-54B9-4093-B5BD-C1C1A6A8BE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
   <si>
     <t>Category</t>
   </si>
@@ -56,18 +56,12 @@
     <t>Independance of Benin</t>
   </si>
   <si>
-    <t>National Conference in Benin</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
     <t>Creation of the Université du Bénin (UB) in Lomé</t>
   </si>
   <si>
-    <t>National Conference in Togo</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -89,18 +83,12 @@
     <t>Coup d'Etat Togo</t>
   </si>
   <si>
-    <t>Policy of "Authenticity"</t>
-  </si>
-  <si>
     <t>Ban of religious sects in Togo</t>
   </si>
   <si>
     <t>Adoption of Marxism-Leninism as the state ideology</t>
   </si>
   <si>
-    <t>Dahomey renamed to Republic of Benin</t>
-  </si>
-  <si>
     <t>Expulsion of Beninese and Togolese students from the University of Dakar</t>
   </si>
   <si>
@@ -116,24 +104,15 @@
     <t>Creation of the Université du Dahomey in Abomey-Calavi</t>
   </si>
   <si>
-    <t>Official inauguration of the Université du Bénin</t>
-  </si>
-  <si>
     <t>École Nouvelle reform</t>
   </si>
   <si>
     <t>Dissolution of all youth associations except for the JRPT</t>
   </si>
   <si>
-    <t>Dissolution of all youth organisations</t>
-  </si>
-  <si>
     <t>Religion</t>
   </si>
   <si>
-    <t>Creation of a Bible study group at the Université du Bénin</t>
-  </si>
-  <si>
     <t>Official recognition of the Groupes Bibliques Universitaires et Scolaires du Togo (GBUST)</t>
   </si>
   <si>
@@ -149,9 +128,6 @@
     <t>Creation of the Emmaüs Community at the Université du Dahomey</t>
   </si>
   <si>
-    <t>Ceremony to lay the foundation stone of the Institut de la Langue Arabe et de la Culture Islamique (ILACI)</t>
-  </si>
-  <si>
     <t>Official recognition of the Communauté Islamique Universitaire du Bénin (CIUB)</t>
   </si>
   <si>
@@ -189,6 +165,18 @@
   </si>
   <si>
     <t>Creation of the Mouvement National des Étudiants et Stagiaires Togolais (MONESTO)</t>
+  </si>
+  <si>
+    <t>Laying of the foundation stone of the Institut de la Langue Arabe et de la Culture Islamique (ILACI)</t>
+  </si>
+  <si>
+    <t>Official inauguration of the UB</t>
+  </si>
+  <si>
+    <t>Creation of a Bible study group at the UB</t>
+  </si>
+  <si>
+    <t>National Conference</t>
   </si>
 </sst>
 </file>
@@ -249,10 +237,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2083B534-B135-45CE-9920-5FBFB7B4867D}" name="Tableau1" displayName="Tableau1" ref="A1:D44" totalsRowShown="0">
-  <autoFilter ref="A1:D44" xr:uid="{2083B534-B135-45CE-9920-5FBFB7B4867D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
-    <sortCondition ref="D1:D44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2083B534-B135-45CE-9920-5FBFB7B4867D}" name="Tableau1" displayName="Tableau1" ref="A1:D41" totalsRowShown="0">
+  <autoFilter ref="A1:D41" xr:uid="{2083B534-B135-45CE-9920-5FBFB7B4867D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+    <sortCondition ref="D1:D41"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2177A455-DE68-412D-9A67-CFE771F36BDB}" name="Category"/>
@@ -561,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E4634B-6B14-474B-95CD-3BD74898EECD}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -592,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -606,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -620,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>23024</v>
@@ -631,13 +619,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>23937</v>
@@ -648,10 +636,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>24577</v>
@@ -659,13 +647,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>24959</v>
@@ -673,13 +661,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>25324</v>
@@ -687,13 +675,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>25801</v>
@@ -701,13 +689,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
       </c>
       <c r="D10" s="1">
         <v>25825</v>
@@ -715,13 +703,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
         <v>26299</v>
@@ -732,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>26341</v>
@@ -746,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
         <v>26598</v>
@@ -757,13 +745,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>26997</v>
@@ -771,421 +759,379 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1">
-        <v>27030</v>
+        <v>27273</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>27137</v>
+        <v>27363</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
-        <v>27273</v>
+        <v>27546</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
-        <v>27363</v>
+        <v>27520</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>27395</v>
+        <v>27728</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1">
-        <v>27520</v>
+        <v>28338</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1">
-        <v>27728</v>
+        <v>28460</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1">
-        <v>27728</v>
+        <v>28856</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1">
-        <v>28338</v>
+        <v>28913</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1">
-        <v>28460</v>
+        <v>29134</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
-        <v>28856</v>
+        <v>29587</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1">
-        <v>28913</v>
+        <v>31778</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1">
-        <v>29134</v>
+        <v>32357</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1">
-        <v>29587</v>
+        <v>32923</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1">
-        <v>31778</v>
+        <v>33427</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1">
-        <v>32357</v>
+        <v>35065</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1">
-        <v>32923</v>
+        <v>35796</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1">
-        <v>33427</v>
+        <v>36161</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
-        <v>35065</v>
+        <v>36181</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1">
-        <v>35796</v>
+        <v>36892</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>36161</v>
+        <v>36959</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1">
-        <v>36181</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1">
-        <v>36892</v>
+        <v>38388</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1">
-        <v>36959</v>
+        <v>38565</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="1">
-        <v>37152</v>
+        <v>38930</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D40" s="1">
-        <v>38388</v>
+        <v>39650</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D41" s="1">
-        <v>38565</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="1">
-        <v>38930</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="1">
-        <v>39650</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="1">
         <v>40340</v>
       </c>
     </row>
